--- a/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>ZESTAW ZADAŃ NR 50 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Emilia Maciejewska</t>
-  </si>
-  <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>Adam Jankowski</t>
-  </si>
-  <si>
-    <t>Filip Nowak</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>3,00</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,80</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,10</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>12,50</t>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,00</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,50</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>26,57</t>
+    <t>1,90</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>4,59</t>
+    <t>14,89</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,71</t>
+    <t>24,33</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>18,35</t>
+    <t>17,33</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>22,82</t>
+    <t>15,29</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,16 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>7,06</t>
-  </si>
-  <si>
-    <t>9,43</t>
-  </si>
-  <si>
-    <t>27,05</t>
-  </si>
-  <si>
-    <t>18,13</t>
-  </si>
-  <si>
-    <t>10,74</t>
+    <t>24,76</t>
+  </si>
+  <si>
+    <t>6,93</t>
+  </si>
+  <si>
+    <t>25,65</t>
+  </si>
+  <si>
+    <t>18,32</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>20,16</t>
-  </si>
-  <si>
-    <t>2,76</t>
-  </si>
-  <si>
-    <t>9,56</t>
-  </si>
-  <si>
-    <t>8,77</t>
-  </si>
-  <si>
-    <t>1,15</t>
+    <t>26,96</t>
+  </si>
+  <si>
+    <t>11,31</t>
+  </si>
+  <si>
+    <t>29,64</t>
+  </si>
+  <si>
+    <t>1,84</t>
+  </si>
+  <si>
+    <t>24,35</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,31 +337,34 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -400,139 +400,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>26.04.1991</t>
-  </si>
-  <si>
-    <t>9 752,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Sadowska</t>
-  </si>
-  <si>
-    <t>01.12.1978</t>
-  </si>
-  <si>
-    <t>14 022,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Grabowski</t>
-  </si>
-  <si>
-    <t>02.12.1998</t>
-  </si>
-  <si>
-    <t>14 836,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Jankowski</t>
-  </si>
-  <si>
-    <t>08.12.1979</t>
-  </si>
-  <si>
-    <t>3 259,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>13.03.1975</t>
-  </si>
-  <si>
-    <t>8 658,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Mazur</t>
-  </si>
-  <si>
-    <t>01.01.1979</t>
-  </si>
-  <si>
-    <t>8 365,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Czarnecka</t>
-  </si>
-  <si>
-    <t>16.12.1988</t>
-  </si>
-  <si>
-    <t>8 305,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>21.11.1984</t>
-  </si>
-  <si>
-    <t>10 286,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kowalski</t>
-  </si>
-  <si>
-    <t>16.09.1984</t>
-  </si>
-  <si>
-    <t>11 573,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>15.08.1975</t>
-  </si>
-  <si>
-    <t>8 389,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>17.11.1992</t>
-  </si>
-  <si>
-    <t>4 486,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Urbaniak</t>
-  </si>
-  <si>
-    <t>15.12.1991</t>
-  </si>
-  <si>
-    <t>8 827,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>17.10.2004</t>
-  </si>
-  <si>
-    <t>8 505,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>27.04.2001</t>
-  </si>
-  <si>
-    <t>9 897,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>11.01.2000</t>
-  </si>
-  <si>
-    <t>8 175,00 zł</t>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>28.02.1983</t>
+  </si>
+  <si>
+    <t>9 972,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>07.06.1993</t>
+  </si>
+  <si>
+    <t>9 124,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Nowak</t>
+  </si>
+  <si>
+    <t>14.11.1996</t>
+  </si>
+  <si>
+    <t>4 615,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Krawczyk</t>
+  </si>
+  <si>
+    <t>14.03.1982</t>
+  </si>
+  <si>
+    <t>10 564,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>24.05.1992</t>
+  </si>
+  <si>
+    <t>11 398,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>16.02.1981</t>
+  </si>
+  <si>
+    <t>4 705,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>21.09.1976</t>
+  </si>
+  <si>
+    <t>9 278,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Czarnecka</t>
+  </si>
+  <si>
+    <t>25.10.2003</t>
+  </si>
+  <si>
+    <t>4 281,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>08.07.1987</t>
+  </si>
+  <si>
+    <t>8 964,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>16.03.1976</t>
+  </si>
+  <si>
+    <t>4 599,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>25.01.1998</t>
+  </si>
+  <si>
+    <t>6 844,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>04.02.1989</t>
+  </si>
+  <si>
+    <t>7 318,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>25.05.1993</t>
+  </si>
+  <si>
+    <t>5 151,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>23.04.1993</t>
+  </si>
+  <si>
+    <t>8 436,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -604,16 +595,58 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
-    <t>1 431,00 zł</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>726,00 zł</t>
+  </si>
+  <si>
+    <t>966,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>832,00 zł</t>
+  </si>
+  <si>
+    <t>965,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>577,00 zł</t>
+  </si>
+  <si>
+    <t>739,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 349,00 zł</t>
+  </si>
+  <si>
+    <t>1 605,00 zł</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
@@ -622,280 +655,244 @@
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 252,00 zł</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 483,00 zł</t>
+  </si>
+  <si>
+    <t>1 735,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>1 379,00 zł</t>
+  </si>
+  <si>
+    <t>1 517,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 237,00 zł</t>
+  </si>
+  <si>
+    <t>1 695,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 236,00 zł</t>
+  </si>
+  <si>
+    <t>1 496,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>1 200,00 zł</t>
+  </si>
+  <si>
+    <t>1 572,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 409,00 zł</t>
+  </si>
+  <si>
+    <t>1 733,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>863,00 zł</t>
+  </si>
+  <si>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 375,00 zł</t>
+  </si>
+  <si>
+    <t>1 746,00 zł</t>
+  </si>
+  <si>
+    <t>692,00 zł</t>
+  </si>
+  <si>
+    <t>837,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>766,00 zł</t>
+  </si>
+  <si>
+    <t>889,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 369,00 zł</t>
+  </si>
+  <si>
+    <t>1 793,00 zł</t>
+  </si>
+  <si>
+    <t>688,00 zł</t>
+  </si>
+  <si>
+    <t>874,00 zł</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 037,00 zł</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>952,00 zł</t>
-  </si>
-  <si>
-    <t>1 190,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>1 053,00 zł</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 724,00 zł</t>
+    <t>565,00 zł</t>
+  </si>
+  <si>
+    <t>650,00 zł</t>
   </si>
   <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
-    <t>1 179,00 zł</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 375,00 zł</t>
-  </si>
-  <si>
-    <t>1 554,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>950,00 zł</t>
-  </si>
-  <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>1 029,00 zł</t>
-  </si>
-  <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>1 369,00 zł</t>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>885,00 zł</t>
+  </si>
+  <si>
+    <t>991,00 zł</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 486,00 zł</t>
+  </si>
+  <si>
+    <t>2 051,00 zł</t>
+  </si>
+  <si>
+    <t>1 309,00 zł</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
-    <t>824,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
-    <t>1 935,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 418,00 zł</t>
-  </si>
-  <si>
-    <t>1 702,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>613,00 zł</t>
-  </si>
-  <si>
-    <t>772,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 564,00 zł</t>
+    <t>804,00 zł</t>
+  </si>
+  <si>
+    <t>892,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
+    <t>1 145,00 zł</t>
+  </si>
+  <si>
+    <t>1 466,00 zł</t>
+  </si>
+  <si>
+    <t>538,00 zł</t>
+  </si>
+  <si>
+    <t>699,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>684,00 zł</t>
+  </si>
+  <si>
+    <t>814,00 zł</t>
+  </si>
+  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>2 024,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 139,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>547,00 zł</t>
-  </si>
-  <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>602,00 zł</t>
-  </si>
-  <si>
-    <t>825,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 439,00 zł</t>
+    <t>1 260,00 zł</t>
+  </si>
+  <si>
+    <t>1 588,00 zł</t>
+  </si>
+  <si>
+    <t>720,00 zł</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>794,00 zł</t>
+  </si>
+  <si>
+    <t>961,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1452,19 +1449,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1473,19 +1470,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1494,19 +1491,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
-        <v>5</v>
-      </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1515,19 +1512,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1536,19 +1533,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1557,16 +1554,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
@@ -1578,19 +1575,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1599,19 +1596,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1620,13 +1617,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -1641,19 +1638,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1662,19 +1659,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1686,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
         <v>6</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1817,7 +1814,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1832,7 +1829,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1847,7 +1844,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1862,7 +1859,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1877,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1892,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2009,7 +2006,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2021,7 +2018,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2033,7 +2030,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2045,7 +2042,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2057,7 +2054,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2105,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2117,7 +2114,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2126,10 +2123,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2138,10 +2135,10 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2150,10 +2147,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2161,7 +2158,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2198,10 +2195,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2210,10 +2207,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2222,10 +2219,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2234,10 +2231,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2246,22 +2243,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2307,53 +2304,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2365,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2374,43 +2371,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
       <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2418,25 +2415,25 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -2450,28 +2447,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>4</v>
@@ -2482,31 +2479,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2514,28 +2511,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2592,10 +2589,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2805,44 +2802,33 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>171</v>
+      <c r="B28" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +2846,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2879,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2889,75 +2875,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2965,22 +2951,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2988,22 +2974,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3011,22 +2997,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3034,22 +3020,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3057,22 +3043,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3080,19 +3066,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>220</v>
@@ -3103,22 +3089,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3126,22 +3112,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3149,10 +3135,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>231</v>
@@ -3172,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>235</v>
@@ -3187,7 +3173,7 @@
         <v>238</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3195,22 +3181,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3218,22 +3204,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3241,10 +3227,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>247</v>
@@ -3253,10 +3239,10 @@
         <v>248</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3264,19 +3250,19 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>253</v>
@@ -3287,7 +3273,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>254</v>
@@ -3299,10 +3285,10 @@
         <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3310,22 +3296,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3333,22 +3319,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3356,22 +3342,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3379,22 +3365,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3402,22 +3388,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3425,22 +3411,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3448,22 +3434,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3471,22 +3457,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3494,22 +3480,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3517,22 +3503,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3540,22 +3526,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3563,67 +3549,90 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>171</v>
+      <c r="F43" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>175</v>
+      <c r="A46" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>ZESTAW ZADAŃ NR 50 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 50 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>3,00</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,10</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,00</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,72 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>14,89</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>24,33</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>17,33</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>15,29</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>24,76</t>
-  </si>
-  <si>
-    <t>6,93</t>
-  </si>
-  <si>
-    <t>25,65</t>
-  </si>
-  <si>
-    <t>18,32</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>26,96</t>
-  </si>
-  <si>
-    <t>11,31</t>
-  </si>
-  <si>
-    <t>29,64</t>
-  </si>
-  <si>
-    <t>1,84</t>
-  </si>
-  <si>
-    <t>24,35</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,126 +331,84 @@
     <t>28.02.1983</t>
   </si>
   <si>
-    <t>9 972,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Zieliński</t>
   </si>
   <si>
     <t>07.06.1993</t>
   </si>
   <si>
-    <t>9 124,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Nowak</t>
   </si>
   <si>
     <t>14.11.1996</t>
   </si>
   <si>
-    <t>4 615,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Krawczyk</t>
   </si>
   <si>
     <t>14.03.1982</t>
   </si>
   <si>
-    <t>10 564,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Sadowska</t>
   </si>
   <si>
     <t>24.05.1992</t>
   </si>
   <si>
-    <t>11 398,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wójcik</t>
   </si>
   <si>
     <t>16.02.1981</t>
   </si>
   <si>
-    <t>4 705,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kowalski</t>
   </si>
   <si>
     <t>21.09.1976</t>
   </si>
   <si>
-    <t>9 278,00 zł</t>
-  </si>
-  <si>
     <t>Anna Czarnecka</t>
   </si>
   <si>
     <t>25.10.2003</t>
   </si>
   <si>
-    <t>4 281,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Szymański</t>
   </si>
   <si>
     <t>08.07.1987</t>
   </si>
   <si>
-    <t>8 964,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wilk</t>
   </si>
   <si>
     <t>16.03.1976</t>
   </si>
   <si>
-    <t>4 599,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Krawczyk</t>
   </si>
   <si>
     <t>25.01.1998</t>
   </si>
   <si>
-    <t>6 844,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>04.02.1989</t>
   </si>
   <si>
-    <t>7 318,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Król</t>
   </si>
   <si>
     <t>25.05.1993</t>
   </si>
   <si>
-    <t>5 151,00 zł</t>
-  </si>
-  <si>
     <t>Maja Jaworska</t>
   </si>
   <si>
     <t>23.04.1993</t>
   </si>
   <si>
-    <t>8 436,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -538,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -601,12 +481,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>726,00 zł</t>
-  </si>
-  <si>
-    <t>966,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -619,36 +493,18 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>832,00 zł</t>
-  </si>
-  <si>
-    <t>965,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>577,00 zł</t>
-  </si>
-  <si>
-    <t>739,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -661,24 +517,12 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 483,00 zł</t>
-  </si>
-  <si>
-    <t>1 735,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 517,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -691,36 +535,18 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 237,00 zł</t>
-  </si>
-  <si>
-    <t>1 695,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 236,00 zł</t>
-  </si>
-  <si>
-    <t>1 496,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 572,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -730,24 +556,12 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 409,00 zł</t>
-  </si>
-  <si>
-    <t>1 733,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>863,00 zł</t>
-  </si>
-  <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -757,27 +571,9 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 375,00 zł</t>
-  </si>
-  <si>
-    <t>1 746,00 zł</t>
-  </si>
-  <si>
-    <t>692,00 zł</t>
-  </si>
-  <si>
-    <t>837,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -787,112 +583,34 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
-    <t>1 793,00 zł</t>
-  </si>
-  <si>
-    <t>688,00 zł</t>
-  </si>
-  <si>
-    <t>874,00 zł</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 037,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>565,00 zł</t>
-  </si>
-  <si>
-    <t>650,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>885,00 zł</t>
-  </si>
-  <si>
-    <t>991,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 486,00 zł</t>
-  </si>
-  <si>
-    <t>2 051,00 zł</t>
-  </si>
-  <si>
-    <t>1 309,00 zł</t>
-  </si>
-  <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>804,00 zł</t>
-  </si>
-  <si>
-    <t>892,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>1 145,00 zł</t>
-  </si>
-  <si>
-    <t>1 466,00 zł</t>
-  </si>
-  <si>
-    <t>538,00 zł</t>
-  </si>
-  <si>
-    <t>699,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
-    <t>684,00 zł</t>
-  </si>
-  <si>
-    <t>814,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 260,00 zł</t>
-  </si>
-  <si>
-    <t>1 588,00 zł</t>
-  </si>
-  <si>
-    <t>720,00 zł</t>
-  </si>
-  <si>
     <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>794,00 zł</t>
-  </si>
-  <si>
-    <t>961,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -914,7 +632,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -971,14 +691,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -989,8 +709,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,30 +741,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1068,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1422,25 +1143,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1463,7 +1184,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1484,7 +1205,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1505,7 +1226,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1526,7 +1247,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1547,7 +1268,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1568,7 +1289,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1589,7 +1310,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1610,7 +1331,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1631,7 +1352,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1652,7 +1373,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1673,7 +1394,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1694,27 +1415,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1748,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1768,7 +1479,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1778,29 +1489,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1808,99 +1519,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.6</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.1</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.5</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1933,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1958,113 +1669,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.9</v>
       </c>
       <c r="C15" s="3">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14.89</v>
       </c>
       <c r="C16" s="3">
         <v>17</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>24.33</v>
       </c>
       <c r="C17" s="3">
         <v>41</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17.33</v>
       </c>
       <c r="C18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15.29</v>
       </c>
       <c r="C19" s="3">
         <v>37</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2073,94 +1784,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>24.76</v>
       </c>
       <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6.93</v>
       </c>
       <c r="C25" s="3">
         <v>39</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>17.33</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>25.65</v>
       </c>
       <c r="C27" s="3">
         <v>39</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>18.32</v>
       </c>
       <c r="C28" s="3">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2169,98 +1880,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26.96</v>
       </c>
       <c r="C33" s="3">
         <v>37</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>11.31</v>
       </c>
       <c r="C34" s="3">
         <v>28</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>29.64</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.84</v>
       </c>
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>24.35</v>
       </c>
       <c r="C37" s="3">
         <v>11</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2283,7 +1994,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2303,90 +2014,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2409,16 +2120,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2441,16 +2152,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2473,16 +2184,16 @@
       <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2505,16 +2216,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2537,40 +2248,40 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2603,233 +2314,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9972</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9124</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4615</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10564</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11398</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4705</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4281</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8964</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4599</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6844</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7318</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8436</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>168</v>
+      <c r="A27" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2864,86 +2569,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>173</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>190</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2951,22 +2656,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>726</v>
+      </c>
+      <c r="E16" s="7">
+        <v>966</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2974,22 +2679,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>832</v>
+      </c>
+      <c r="E17" s="7">
+        <v>965</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2997,22 +2702,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="D18" s="7">
+        <v>577</v>
+      </c>
+      <c r="E18" s="7">
+        <v>739</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3020,22 +2725,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1605</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3043,22 +2748,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1483</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1735</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3066,22 +2771,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>218</v>
+        <v>158</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1517</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3089,22 +2794,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1237</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1695</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3112,22 +2817,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1236</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1496</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3135,22 +2840,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>164</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1572</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3158,22 +2863,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1409</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1733</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3181,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>863</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1061</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3204,22 +2909,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>182</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1375</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1746</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3227,22 +2932,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>179</v>
+      </c>
+      <c r="D28" s="7">
+        <v>692</v>
+      </c>
+      <c r="E28" s="7">
+        <v>837</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3250,22 +2955,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>766</v>
+      </c>
+      <c r="E29" s="7">
+        <v>889</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3273,22 +2978,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>186</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1369</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1793</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3296,22 +3001,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>258</v>
+        <v>172</v>
+      </c>
+      <c r="D31" s="7">
+        <v>688</v>
+      </c>
+      <c r="E31" s="7">
+        <v>874</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3319,22 +3024,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1037</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1369</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3342,22 +3047,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>263</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="7">
+        <v>565</v>
+      </c>
+      <c r="E33" s="7">
+        <v>650</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3365,22 +3070,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
+        <v>885</v>
+      </c>
+      <c r="E34" s="7">
+        <v>991</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3388,22 +3093,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>270</v>
+      <c r="D35" s="7">
+        <v>1486</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2051</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3411,22 +3116,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>272</v>
+        <v>172</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1309</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1492</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3434,22 +3139,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>275</v>
+        <v>183</v>
+      </c>
+      <c r="D37" s="7">
+        <v>804</v>
+      </c>
+      <c r="E37" s="7">
+        <v>892</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3457,22 +3162,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>278</v>
+        <v>188</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1145</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1466</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3480,22 +3185,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>280</v>
+        <v>172</v>
+      </c>
+      <c r="D39" s="7">
+        <v>538</v>
+      </c>
+      <c r="E39" s="7">
+        <v>699</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3503,22 +3208,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>283</v>
+        <v>182</v>
+      </c>
+      <c r="D40" s="7">
+        <v>684</v>
+      </c>
+      <c r="E40" s="7">
+        <v>814</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3526,22 +3231,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>195</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1588</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3549,22 +3254,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>283</v>
+        <v>170</v>
+      </c>
+      <c r="D42" s="7">
+        <v>720</v>
+      </c>
+      <c r="E42" s="7">
+        <v>814</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3572,68 +3277,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>290</v>
+        <v>196</v>
+      </c>
+      <c r="D43" s="7">
+        <v>794</v>
+      </c>
+      <c r="E43" s="7">
+        <v>961</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>168</v>
+      <c r="A46" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_050.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>ZESTAW ZADAŃ NR 50 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Zawadzka</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>Emilia Piekarska</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Hanna Bednarska</t>
+    <t>Lena Urbaniak</t>
+  </si>
+  <si>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>Kacper Dąbrowski</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 50 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
+    <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,37 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -325,88 +338,55 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Julia Malinowska</t>
-  </si>
-  <si>
-    <t>28.02.1983</t>
-  </si>
-  <si>
-    <t>Aleksander Zieliński</t>
-  </si>
-  <si>
-    <t>07.06.1993</t>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Aleksander Dąbrowski</t>
   </si>
   <si>
     <t>Kacper Nowak</t>
   </si>
   <si>
-    <t>14.11.1996</t>
-  </si>
-  <si>
-    <t>Kacper Krawczyk</t>
-  </si>
-  <si>
-    <t>14.03.1982</t>
-  </si>
-  <si>
-    <t>Amelia Sadowska</t>
-  </si>
-  <si>
-    <t>24.05.1992</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>16.02.1981</t>
-  </si>
-  <si>
-    <t>Filip Kowalski</t>
-  </si>
-  <si>
-    <t>21.09.1976</t>
-  </si>
-  <si>
-    <t>Anna Czarnecka</t>
-  </si>
-  <si>
-    <t>25.10.2003</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>08.07.1987</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>16.03.1976</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>25.01.1998</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>04.02.1989</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>25.05.1993</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>23.04.1993</t>
+    <t>Adam Grabowski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Szymon Kamiński</t>
+  </si>
+  <si>
+    <t>Lena Sikorska</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>Wojciech Grabowski</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -421,7 +401,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Amelia Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
+  </si>
+  <si>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Oliwia Bednarska</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -475,94 +512,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
   </si>
   <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>opolskie</t>
@@ -571,46 +662,10 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -682,7 +737,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,12 +760,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -752,13 +801,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1065,7 +1113,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1170,19 +1218,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1194,16 +1242,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1212,19 +1260,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1233,13 +1281,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -1254,19 +1302,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1275,19 +1323,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>4</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1299,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>6</v>
@@ -1317,16 +1365,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1341,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1359,19 +1407,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1380,7 +1428,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1389,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,16 +1452,16 @@
         <v>6</v>
       </c>
       <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
         <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1426,6 +1474,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1459,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1479,7 +1533,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1489,29 +1543,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1519,99 +1573,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.6</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2.6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.8</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.5</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5.4</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7.4</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.5</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>19.5</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1628,10 +1682,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1644,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1669,27 +1723,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1697,85 +1751,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.9</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.98</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>14.89</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.84</v>
       </c>
       <c r="C16" s="3">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>24.33</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16.079999999999998</v>
       </c>
       <c r="C17" s="3">
-        <v>41</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17.33</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>23.55</v>
       </c>
       <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>15.29</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4.48</v>
       </c>
       <c r="C19" s="3">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1784,8 +1838,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1793,85 +1847,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>24.76</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.48</v>
       </c>
       <c r="C24" s="3">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>6.93</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30.77</v>
       </c>
       <c r="C25" s="3">
-        <v>39</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>17.33</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>25.21</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>25.65</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10.06</v>
       </c>
       <c r="C27" s="3">
-        <v>39</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>18.32</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>16.16</v>
       </c>
       <c r="C28" s="3">
-        <v>26</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1880,8 +1934,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1889,89 +1943,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>26.96</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>22.36</v>
       </c>
       <c r="C33" s="3">
-        <v>37</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>11.31</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.13</v>
       </c>
       <c r="C34" s="3">
-        <v>28</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>29.64</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2.56</v>
       </c>
       <c r="C35" s="3">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1.84</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>6.02</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>24.35</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>30.74</v>
       </c>
       <c r="C37" s="3">
-        <v>11</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1991,10 +2053,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2014,111 +2076,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2129,28 +2191,28 @@
         <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2158,31 +2220,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2190,31 +2252,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
         <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2222,13 +2284,13 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -2237,13 +2299,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2252,42 +2314,106 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,10 +2426,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2314,227 +2440,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9972</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9124</v>
+        <v>105</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10507</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="7">
-        <v>4615</v>
+      <c r="B13" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="8">
+        <v>13941</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10564</v>
+      <c r="B14" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10928</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11398</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13584</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4705</v>
+        <v>109</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6569</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9278</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6006</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4281</v>
+        <v>111</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4331</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8964</v>
+        <v>112</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7920</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4599</v>
+        <v>113</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7569</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6844</v>
+        <v>114</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C21" s="8">
+        <v>13550</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>7318</v>
+        <v>115</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8787</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>5151</v>
+        <v>116</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5416</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>8436</v>
+        <v>117</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C26" s="8">
+        <v>11818</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>129</v>
+      <c r="A27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C27" s="8">
+        <v>7527</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2551,10 +2721,203 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <v>151</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>137</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>184</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3">
+        <v>193</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3">
+        <v>188</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3">
+        <v>173</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3">
+        <v>119</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>153</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>142</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>172</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="3">
+        <v>164</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="3">
+        <v>184</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="3">
+        <v>172</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="3">
+        <v>138</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2569,86 +2932,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2656,22 +3019,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>726</v>
-      </c>
-      <c r="E16" s="7">
-        <v>966</v>
+        <v>164</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1329</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2679,22 +3042,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>832</v>
-      </c>
-      <c r="E17" s="7">
-        <v>965</v>
+        <v>168</v>
+      </c>
+      <c r="D17" s="8">
+        <v>664</v>
+      </c>
+      <c r="E17" s="8">
+        <v>730</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2702,22 +3065,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="7">
-        <v>577</v>
-      </c>
-      <c r="E18" s="7">
-        <v>739</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1035</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1180</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2725,22 +3088,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1349</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1605</v>
+        <v>175</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1137</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1501</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2748,22 +3111,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1483</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1735</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1394</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1547</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2771,22 +3134,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1379</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1517</v>
+        <v>182</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1326</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1830</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2794,22 +3157,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1237</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1695</v>
+        <v>185</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1388</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1929</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2817,22 +3180,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1236</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1496</v>
+        <v>188</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1435</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1909</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2843,19 +3206,19 @@
         <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1572</v>
+        <v>191</v>
+      </c>
+      <c r="D24" s="8">
+        <v>832</v>
+      </c>
+      <c r="E24" s="8">
+        <v>948</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2863,22 +3226,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1409</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1733</v>
+        <v>193</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1360</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1686</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2886,22 +3249,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="7">
-        <v>863</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1061</v>
+        <v>195</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1218</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1364</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2909,22 +3272,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1375</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1746</v>
+        <v>175</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1005</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1317</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2932,22 +3295,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="7">
-        <v>692</v>
-      </c>
-      <c r="E28" s="7">
-        <v>837</v>
+        <v>196</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1330</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1742</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2955,22 +3318,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1644</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D29" s="7">
-        <v>766</v>
-      </c>
-      <c r="E29" s="7">
-        <v>889</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2978,22 +3341,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="8">
+        <v>861</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1119</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="7">
-        <v>1369</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1793</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3001,22 +3364,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="7">
-        <v>688</v>
-      </c>
-      <c r="E31" s="7">
-        <v>874</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="8">
+        <v>782</v>
+      </c>
+      <c r="E31" s="8">
+        <v>954</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3024,22 +3387,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1037</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1369</v>
+        <v>182</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1173</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1478</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3047,22 +3410,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="7">
-        <v>565</v>
-      </c>
-      <c r="E33" s="7">
-        <v>650</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1999</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3070,22 +3433,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="7">
-        <v>885</v>
-      </c>
-      <c r="E34" s="7">
-        <v>991</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1364</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1760</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3093,22 +3456,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1486</v>
-      </c>
-      <c r="E35" s="7">
-        <v>2051</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="8">
+        <v>849</v>
+      </c>
+      <c r="E35" s="8">
+        <v>976</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3116,22 +3479,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1492</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>947</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1241</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3139,22 +3502,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="7">
-        <v>804</v>
-      </c>
-      <c r="E37" s="7">
-        <v>892</v>
+        <v>207</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1109</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1275</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3162,22 +3525,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1145</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1466</v>
+        <v>209</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1033</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1260</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3185,22 +3548,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="7">
-        <v>538</v>
-      </c>
-      <c r="E39" s="7">
-        <v>699</v>
+        <v>175</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1154</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1581</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3211,19 +3574,19 @@
         <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="7">
-        <v>684</v>
-      </c>
-      <c r="E40" s="7">
-        <v>814</v>
+        <v>164</v>
+      </c>
+      <c r="D40" s="8">
+        <v>600</v>
+      </c>
+      <c r="E40" s="8">
+        <v>744</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3231,22 +3594,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1260</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1588</v>
+        <v>212</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1297</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1634</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3254,22 +3617,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="7">
-        <v>720</v>
-      </c>
-      <c r="E42" s="7">
-        <v>814</v>
+        <v>198</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1321</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1678</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3277,58 +3640,104 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>794</v>
-      </c>
-      <c r="E43" s="7">
-        <v>961</v>
+        <v>209</v>
+      </c>
+      <c r="D43" s="8">
+        <v>790</v>
+      </c>
+      <c r="E43" s="8">
+        <v>908</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1272</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1755</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1082</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1450</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
